--- a/data/trans_dic/P21B_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03603556777571293</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05093553902697754</v>
+        <v>0.05093553902697755</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03311510117037773</v>
@@ -697,7 +697,7 @@
         <v>0.04522971819401624</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05340221688176254</v>
+        <v>0.05340221688176255</v>
       </c>
     </row>
     <row r="5">
@@ -711,35 +711,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009627263117192598</v>
+        <v>0.009540966089510657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02022433856891551</v>
+        <v>0.0132041121734195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02303723777299322</v>
+        <v>0.02311077281816645</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.008632467329878638</v>
+        <v>0.008899492549665771</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0256137502143499</v>
+        <v>0.02713207104779806</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009931742569224945</v>
+        <v>0.009819342977099568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004545408699292715</v>
+        <v>0.004586831367213439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01921769270870731</v>
+        <v>0.01949622380653778</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03109448279073452</v>
+        <v>0.03191220307758562</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1292489006804858</v>
+        <v>0.1426771983134867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08418973386040667</v>
+        <v>0.08558658484781272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1371009039611614</v>
+        <v>0.1339227167235903</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.112657519549822</v>
+        <v>0.1197310947607006</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1260004775415049</v>
+        <v>0.1413396419052882</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.09724858008012328</v>
+        <v>0.100220678714519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08999731857133347</v>
+        <v>0.09493856140665217</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08484948109010999</v>
+        <v>0.09596776870194414</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04516797971325702</v>
+        <v>0.04379296385977265</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08801019061030201</v>
+        <v>0.09419845613721167</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08923633113468586</v>
+        <v>0.09037411932257329</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.05967942033049756</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05995684280448893</v>
+        <v>0.05995684280448892</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01513541457342093</v>
@@ -817,7 +817,7 @@
         <v>0.04591270232445942</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04197293264194255</v>
+        <v>0.04197293264194253</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02333104238504876</v>
@@ -843,37 +843,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007033780867834872</v>
+        <v>0.007049026028081628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01255747485564121</v>
+        <v>0.02225789282854961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01889226866795808</v>
+        <v>0.01894265457107443</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00990646143065849</v>
+        <v>0.009862529797189405</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0179907458704985</v>
+        <v>0.01799043468525558</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01755501396101736</v>
+        <v>0.01771109469920254</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008566562262379562</v>
+        <v>0.005179334360171823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01175407975283154</v>
+        <v>0.01185147725081255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02633397150269434</v>
+        <v>0.02575974868052024</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02530737893464912</v>
+        <v>0.02341297107100349</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1225209212149687</v>
+        <v>0.1196117876204719</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05793153452121672</v>
+        <v>0.0591149771683364</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1427854589309381</v>
+        <v>0.1582016001966372</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1465407651735413</v>
+        <v>0.151407799184575</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04564481665837392</v>
+        <v>0.05224041055314965</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06468279648115211</v>
+        <v>0.06927893311548855</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1029176623403863</v>
+        <v>0.1006694745740631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09503405918727414</v>
+        <v>0.09236133072531329</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06074072352128351</v>
+        <v>0.0618432905606591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05321546479904131</v>
+        <v>0.05501378883797322</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09467502814563404</v>
+        <v>0.09467355418416358</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08706274200990588</v>
+        <v>0.08860664308510759</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.07587716904325571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07191393464574353</v>
+        <v>0.07191393464574354</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0.100057089478011</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0328008579970781</v>
+        <v>0.03280085799707809</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01850557820906473</v>
@@ -976,38 +976,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01282792403803383</v>
+        <v>0.01293212878854513</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02405022868677108</v>
+        <v>0.02392433328527759</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02782438524583407</v>
+        <v>0.03096980559800079</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03670549939346841</v>
+        <v>0.03880410647800516</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01015144160719759</v>
+        <v>0.01005696272303399</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005733316460541959</v>
+        <v>0.005720510999660193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005703858673756246</v>
+        <v>0.005665043530104784</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03422647378379351</v>
+        <v>0.04282032068973462</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02585367582194528</v>
+        <v>0.02641790019662166</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1160124754161758</v>
+        <v>0.1196342150894442</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0588118533179706</v>
+        <v>0.06782729882357849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2035753322827526</v>
+        <v>0.2028818542124184</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1419331041164762</v>
+        <v>0.1432068619148422</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.09510753319696713</v>
+        <v>0.1046704959411983</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1996956070881178</v>
+        <v>0.2095023752752836</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08557340857242386</v>
+        <v>0.08586324146392098</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05093930867702907</v>
+        <v>0.05260644669494301</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06041218129471496</v>
+        <v>0.06198662727366347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.15961205078945</v>
+        <v>0.1722308835239348</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0868738901721724</v>
+        <v>0.08460583629022657</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0.03760149391063299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07260918028674362</v>
+        <v>0.07260918028674367</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02594273875222768</v>
@@ -1085,7 +1085,7 @@
         <v>0.08834392810088834</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07399594221117858</v>
+        <v>0.07399594221117857</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02512489086791614</v>
@@ -1097,7 +1097,7 @@
         <v>0.06617473942946113</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07336114107452039</v>
+        <v>0.07336114107452041</v>
       </c>
     </row>
     <row r="14">
@@ -1114,34 +1114,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009908393267482184</v>
+        <v>0.009782920948745829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01293077763628399</v>
+        <v>0.01308127377528251</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008149678736253593</v>
+        <v>0.008264120382237663</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009226409702165726</v>
+        <v>0.00930654379863838</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04330832202696357</v>
+        <v>0.04522117287954196</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03608625315817694</v>
+        <v>0.0376197969731185</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009849457700825411</v>
+        <v>0.009839514787126764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01569492845470671</v>
+        <v>0.01528207767748552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03553595280215394</v>
+        <v>0.03792377063596841</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03814941481231197</v>
+        <v>0.03840928843795005</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08486790455002674</v>
+        <v>0.075063562817516</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1349335996895293</v>
+        <v>0.144532389927631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1099047470291792</v>
+        <v>0.1108225140927395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2384819285310457</v>
+        <v>0.2285683762236627</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07001387282532759</v>
+        <v>0.07154337150198552</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08534112612837574</v>
+        <v>0.09229097629596372</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1537755962685121</v>
+        <v>0.1614074183036213</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1438638965276838</v>
+        <v>0.1382484393539894</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05973053082295063</v>
+        <v>0.05512376699625628</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08276057271173785</v>
+        <v>0.08082172928348817</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1123474212537869</v>
+        <v>0.1118939670126698</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1511450905070526</v>
+        <v>0.144937320000339</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0795415799327777</v>
+        <v>0.07954157993277773</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03863179560524823</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.009144054507171472</v>
+        <v>0.008937698733934015</v>
       </c>
       <c r="M17" s="5" t="inlineStr"/>
       <c r="N17" s="5" t="n">
@@ -1279,29 +1279,29 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.1906871127913947</v>
+        <v>0.1969351911100126</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.2557603142191577</v>
+        <v>0.2476427868354202</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1874964454196642</v>
+        <v>0.1790735969385429</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08196266913096768</v>
+        <v>0.08315218740084521</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.1202348633449423</v>
+        <v>0.1245517444571489</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08478879121303033</v>
+        <v>0.08028608719330285</v>
       </c>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.1649383658479111</v>
+        <v>0.1645844352162748</v>
       </c>
     </row>
     <row r="19">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.02787326964967011</v>
+        <v>0.0278732696496701</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.008134874726677881</v>
@@ -1363,7 +1363,7 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.00651812401584115</v>
+        <v>0.006689150285122141</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.008258321493716076</v>
+        <v>0.007046880531393072</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.01245548956653484</v>
+        <v>0.01084478750021025</v>
       </c>
     </row>
     <row r="21">
@@ -1397,27 +1397,27 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.08279919770746608</v>
+        <v>0.08787990969963071</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07348576437611468</v>
+        <v>0.06748031016470966</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0575216917418544</v>
+        <v>0.04993497044494016</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.09022157127867676</v>
+        <v>0.0835832437496935</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0446947605727604</v>
+        <v>0.04386386418618856</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02984939034545644</v>
+        <v>0.03873594569780447</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.06239945206471346</v>
+        <v>0.06106591254894685</v>
       </c>
     </row>
     <row r="22">
@@ -1476,40 +1476,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04246193731140663</v>
+        <v>0.04050581204071273</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02909519523432645</v>
+        <v>0.03859607736063824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08715647906562768</v>
+        <v>0.08884297081601827</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0322656429588828</v>
+        <v>0.0299183720572115</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0172041574073058</v>
+        <v>0.01605534489255342</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05832276727143976</v>
+        <v>0.05727016137351083</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.103512051322951</v>
+        <v>0.1065521381731876</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04688531808594295</v>
+        <v>0.04606567729792402</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0130320919734807</v>
+        <v>0.01232145020229431</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06162183120177468</v>
+        <v>0.0622050389369378</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1082105111998092</v>
+        <v>0.1083120510031312</v>
       </c>
     </row>
     <row r="24">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1603777742395292</v>
+        <v>0.1620736780859766</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04246378305022797</v>
+        <v>0.04124089445687096</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1821125716761892</v>
+        <v>0.1682296717054994</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1938735598215224</v>
+        <v>0.1986889524167542</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1088985850711668</v>
+        <v>0.1082356848869306</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07894833515600538</v>
+        <v>0.08081830508174467</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1655960309556246</v>
+        <v>0.1737030148242039</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1870472294240715</v>
+        <v>0.1867083805950352</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1104367725956136</v>
+        <v>0.1115159498174971</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05145611736640553</v>
+        <v>0.04922577985235305</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1505911280138447</v>
+        <v>0.147904798535576</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1762491803880664</v>
+        <v>0.1757801468356769</v>
       </c>
     </row>
     <row r="25">
@@ -1577,7 +1577,7 @@
         <v>0.1436350333368908</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.05865686388535449</v>
+        <v>0.0586568638853545</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.02515719867127457</v>
@@ -1601,7 +1601,7 @@
         <v>0.126833164591141</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.07820755666808592</v>
+        <v>0.0782075566680859</v>
       </c>
     </row>
     <row r="26">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01103512259402562</v>
+        <v>0.01095481624655625</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08321386433417363</v>
+        <v>0.08071210891252339</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02427108479932551</v>
+        <v>0.02592852836341491</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.006701734712501954</v>
+        <v>0.006695982829836825</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03626655111599515</v>
+        <v>0.03741725669184141</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06463116864298946</v>
+        <v>0.06746828263710439</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05105375644031556</v>
+        <v>0.05261453815793803</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01550909980272092</v>
+        <v>0.01552900943175395</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02810526963280215</v>
+        <v>0.02495459104766286</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08773172511403808</v>
+        <v>0.08447185281900489</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05184254493921268</v>
+        <v>0.04880382276688889</v>
       </c>
     </row>
     <row r="27">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1113712545074936</v>
+        <v>0.1067154461060069</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09432128696707739</v>
+        <v>0.09912238660983035</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2375083986226117</v>
+        <v>0.2288616031782742</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1150615241087476</v>
+        <v>0.1202037830023774</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06356017364246838</v>
+        <v>0.06126381874816593</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1556109836056092</v>
+        <v>0.1594107347632961</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1837137978380801</v>
+        <v>0.1820326831696248</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1537252877738892</v>
+        <v>0.1581897402432088</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06405746350829723</v>
+        <v>0.06425037444619421</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1088510319513418</v>
+        <v>0.1132565409344359</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1778741274530757</v>
+        <v>0.1798376926190747</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1225472984809351</v>
+        <v>0.1213014996285034</v>
       </c>
     </row>
     <row r="28">
@@ -1737,7 +1737,7 @@
         <v>0.06869625946945786</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.07886695338295806</v>
+        <v>0.07886695338295807</v>
       </c>
     </row>
     <row r="29">
@@ -1748,40 +1748,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02603601084082386</v>
+        <v>0.02590721971762633</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01300439658371371</v>
+        <v>0.01293583981262885</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04683941661010241</v>
+        <v>0.04659887154030128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0586000302575059</v>
+        <v>0.05989991176355455</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.018119575973326</v>
+        <v>0.01780940469464522</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02109730228790237</v>
+        <v>0.02132642387888497</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05504462336153558</v>
+        <v>0.05199403007194808</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06362794223112297</v>
+        <v>0.06302352573479365</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02475921578349058</v>
+        <v>0.02529432169298651</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02026123366297808</v>
+        <v>0.01961046531347498</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0556670160022954</v>
+        <v>0.05430354425677739</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0662552709041821</v>
+        <v>0.06626655747782063</v>
       </c>
     </row>
     <row r="30">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06423492086587394</v>
+        <v>0.06134412784049822</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0367676811902572</v>
+        <v>0.03707227894440235</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09285309370122723</v>
+        <v>0.09326668972055564</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1031419170641118</v>
+        <v>0.1033260661842485</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04216812618822973</v>
+        <v>0.04243338188217155</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04456639774609691</v>
+        <v>0.04434689993448704</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0959491762745763</v>
+        <v>0.09057258011929302</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0971761782373536</v>
+        <v>0.096481061210739</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04555578710690705</v>
+        <v>0.04650979204071869</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03783198358219134</v>
+        <v>0.03589959312576688</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.08454582199238801</v>
+        <v>0.08328989273786</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.09247467934834987</v>
+        <v>0.09378406919485396</v>
       </c>
     </row>
     <row r="31">
@@ -2103,35 +2103,35 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1693</v>
+        <v>1105</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2444</v>
+        <v>2452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>899</v>
+        <v>927</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3119</v>
+        <v>3304</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3609</v>
+        <v>3662</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7085</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="7">
@@ -2142,38 +2142,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4984</v>
+        <v>5502</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8504</v>
+        <v>8645</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11475</v>
+        <v>11209</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11952</v>
+        <v>12702</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7068</v>
+        <v>7928</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>10125</v>
+        <v>10435</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10958</v>
+        <v>11560</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8032</v>
+        <v>9084</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9565</v>
+        <v>9274</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16530</v>
+        <v>17692</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20332</v>
+        <v>20592</v>
       </c>
     </row>
     <row r="8">
@@ -2279,37 +2279,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1037</v>
+        <v>1838</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1958</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1900</v>
+        <v>1917</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1743</v>
+        <v>1054</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3885</v>
+        <v>3917</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5041</v>
+        <v>4931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4788</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="11">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9247</v>
+        <v>9027</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7607</v>
+        <v>7762</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11792</v>
+        <v>13065</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11860</v>
+        <v>12254</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5843</v>
+        <v>6688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12885</v>
+        <v>13800</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11202</v>
+        <v>10957</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10287</v>
+        <v>9998</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12360</v>
+        <v>12585</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17588</v>
+        <v>18182</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>18123</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16470</v>
+        <v>16762</v>
       </c>
     </row>
     <row r="12">
@@ -2456,38 +2456,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2081</v>
+        <v>2316</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1661</v>
+        <v>1756</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2764</v>
+        <v>3458</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4896</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="15">
@@ -2498,38 +2498,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7943</v>
+        <v>8191</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4500</v>
+        <v>5190</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7227</v>
+        <v>7203</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10613</v>
+        <v>10708</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>9155</v>
+        <v>10075</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9036</v>
+        <v>9480</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9808</v>
+        <v>9841</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7867</v>
+        <v>8124</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10438</v>
+        <v>10710</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12889</v>
+        <v>13908</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16453</v>
+        <v>16024</v>
       </c>
     </row>
     <row r="16">
@@ -2638,34 +2638,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5379</v>
+        <v>5616</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3852</v>
+        <v>4015</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2907</v>
+        <v>2831</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7837</v>
+        <v>8364</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>7509</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="19">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6332</v>
+        <v>5600</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10871</v>
+        <v>11644</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10590</v>
+        <v>10678</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21488</v>
+        <v>20595</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7265</v>
+        <v>7423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8932</v>
+        <v>9660</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19098</v>
+        <v>20045</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15355</v>
+        <v>14756</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10654</v>
+        <v>9832</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>15330</v>
+        <v>14970</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24778</v>
+        <v>24678</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29751</v>
+        <v>28529</v>
       </c>
     </row>
     <row r="20">
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1059</v>
+        <v>1035</v>
       </c>
       <c r="M22" s="6" t="inlineStr"/>
       <c r="N22" s="6" t="n">
@@ -2847,29 +2847,29 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>7030</v>
+        <v>7260</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>4808</v>
+        <v>4655</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7883</v>
+        <v>7528</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6468</v>
+        <v>6562</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>9236</v>
+        <v>9567</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>9817</v>
+        <v>9296</v>
       </c>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>4916</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="24">
@@ -2975,7 +2975,7 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>638</v>
+        <v>544</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>1812</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="27">
@@ -3009,27 +3009,27 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5653</v>
+        <v>6000</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6422</v>
+        <v>5897</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5531</v>
+        <v>4801</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>6967</v>
+        <v>6455</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6522</v>
+        <v>6401</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>4789</v>
+        <v>6214</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>9079</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="28">
@@ -3132,40 +3132,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4637</v>
+        <v>4424</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2161</v>
+        <v>2866</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16737</v>
+        <v>17061</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5443</v>
+        <v>5047</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3196</v>
+        <v>2983</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7130</v>
+        <v>7002</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>27554</v>
+        <v>28364</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>13030</v>
+        <v>12802</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4306</v>
+        <v>4072</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>12110</v>
+        <v>12224</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>49585</v>
+        <v>49631</v>
       </c>
     </row>
     <row r="31">
@@ -3176,40 +3176,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17515</v>
+        <v>17700</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6144</v>
+        <v>5967</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13524</v>
+        <v>12493</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>37230</v>
+        <v>38154</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18372</v>
+        <v>18260</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>14666</v>
+        <v>15013</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20245</v>
+        <v>21236</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>49791</v>
+        <v>49701</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>30692</v>
+        <v>30992</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>17004</v>
+        <v>16267</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>29594</v>
+        <v>29066</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>80762</v>
+        <v>80547</v>
       </c>
     </row>
     <row r="32">
@@ -3312,40 +3312,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8237</v>
+        <v>7989</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2462</v>
+        <v>2630</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3831</v>
+        <v>3952</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>9088</v>
+        <v>9487</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>6583</v>
+        <v>6785</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3890</v>
+        <v>3895</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4890</v>
+        <v>4342</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>21020</v>
+        <v>20239</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>11945</v>
+        <v>11244</v>
       </c>
     </row>
     <row r="35">
@@ -3356,40 +3356,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11005</v>
+        <v>10545</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6449</v>
+        <v>6777</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>23510</v>
+        <v>22654</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11673</v>
+        <v>12195</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>9663</v>
+        <v>9314</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>16437</v>
+        <v>16838</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>25833</v>
+        <v>25596</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19823</v>
+        <v>20399</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>16069</v>
+        <v>16117</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>18940</v>
+        <v>19706</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>42618</v>
+        <v>43089</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>28235</v>
+        <v>27948</v>
       </c>
     </row>
     <row r="36">
@@ -3492,40 +3492,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>14540</v>
+        <v>14468</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9150</v>
+        <v>9102</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>25830</v>
+        <v>25698</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>42922</v>
+        <v>43874</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>14931</v>
+        <v>14675</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>20619</v>
+        <v>20843</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>41245</v>
+        <v>38959</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>59475</v>
+        <v>58910</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>34228</v>
+        <v>34968</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>34058</v>
+        <v>32964</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>72410</v>
+        <v>70637</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>110460</v>
+        <v>110479</v>
       </c>
     </row>
     <row r="39">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>35872</v>
+        <v>34257</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25870</v>
+        <v>26084</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>51205</v>
+        <v>51434</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>75547</v>
+        <v>75682</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>34747</v>
+        <v>34965</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>43557</v>
+        <v>43342</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>71895</v>
+        <v>67866</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>90833</v>
+        <v>90184</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>62979</v>
+        <v>64298</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>63594</v>
+        <v>60345</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>109975</v>
+        <v>108341</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>154173</v>
+        <v>156356</v>
       </c>
     </row>
     <row r="40">
